--- a/data/trans_camb/P22_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P22_R2-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.130817276745724</v>
+        <v>-2.202120173334705</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.569653159354422</v>
+        <v>-3.480462032247761</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.493906003249331</v>
+        <v>-1.382999327617987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.207061637543344</v>
+        <v>-1.339930700981895</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.739977205414688</v>
+        <v>-1.783834226227654</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6833969689429855</v>
+        <v>0.6551237307894117</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.117252152068676</v>
+        <v>-1.220653216146428</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-2.165046121867962</v>
+        <v>-2.052361504382636</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1948074213345184</v>
+        <v>0.2499454042628461</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.693871883711207</v>
+        <v>1.798029612949065</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.01856235838315561</v>
+        <v>0.001745555992158841</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.795572917001994</v>
+        <v>2.672472992932632</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.246180844070552</v>
+        <v>2.101653710838616</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.471073436855135</v>
+        <v>1.694200690696861</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.277988244473313</v>
+        <v>4.120068812419679</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.560363621987729</v>
+        <v>1.414063647055327</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2283878407827135</v>
+        <v>0.2854040869602554</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.035914486603309</v>
+        <v>3.213824292355224</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4905650716237175</v>
+        <v>-0.4996625125012621</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.7931449905180953</v>
+        <v>-0.792758080344703</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3368770614387187</v>
+        <v>-0.3113002546564784</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3965837827264228</v>
+        <v>-0.4240246007753669</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5424253579170292</v>
+        <v>-0.5521445970070851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1676425116586506</v>
+        <v>0.203929065837111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.318431163414977</v>
+        <v>-0.3405511489107775</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5985529079558883</v>
+        <v>-0.5708893647981556</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.03787459984086457</v>
+        <v>0.05791261258570522</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7011915529457484</v>
+        <v>0.7194483596348852</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.09452455016383469</v>
+        <v>0.1223750986248503</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.182771531228762</v>
+        <v>1.190805336947884</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.580089870454454</v>
+        <v>1.42809500361399</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.032522623987219</v>
+        <v>1.093598959130739</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.787701789804291</v>
+        <v>2.682117627443305</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7210191384359236</v>
+        <v>0.6045631086976884</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1366467744973546</v>
+        <v>0.1452856464381973</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.34163499325957</v>
+        <v>1.364863095679666</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>0.4980847026194883</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>4.233563142324575</v>
+        <v>4.233563142324574</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.140199910070244</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.87153808540568</v>
+        <v>-3.935385201648615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-4.332228467972592</v>
+        <v>-4.418568945883691</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7291937407510869</v>
+        <v>0.7150790892236851</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.421283749889633</v>
+        <v>-2.191240041748585</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.35673892538614</v>
+        <v>-1.465778412457745</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.120189592340645</v>
+        <v>2.312044458817119</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.499975226654847</v>
+        <v>-2.502315319727627</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-2.25567313634884</v>
+        <v>-2.154638238474096</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>2.10515574487084</v>
+        <v>2.1391227557293</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.197191323305449</v>
+        <v>0.2628520719169157</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.2363574573717513</v>
+        <v>-0.2486405934724325</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.347569820734206</v>
+        <v>6.306486472327114</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.292897796063662</v>
+        <v>1.267344820560191</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.412293036082858</v>
+        <v>2.416567533101067</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>6.25776617752074</v>
+        <v>6.231693210587725</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2520267181673961</v>
+        <v>0.25155899007215</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4201564359924077</v>
+        <v>0.5200682762170658</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>5.489091028174551</v>
+        <v>5.43375819102779</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5367572182695228</v>
+        <v>-0.5455287523100295</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6119637301658734</v>
+        <v>-0.6187894490286232</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.08961332751827326</v>
+        <v>0.1092569356502535</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4479339452616817</v>
+        <v>-0.4436513352612056</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2829437689602792</v>
+        <v>-0.2762609261236776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3949860951100018</v>
+        <v>0.4308832963957717</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4321434335255641</v>
+        <v>-0.4329862290086163</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3977992991253532</v>
+        <v>-0.389497363785119</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3551935572175575</v>
+        <v>0.3561369650211044</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.07368215628021627</v>
+        <v>0.08243994768006443</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.04907260966417576</v>
+        <v>-0.03394106471057197</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.263980146074665</v>
+        <v>1.330716386418936</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4321555133507617</v>
+        <v>0.3947064599201109</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7770196261745768</v>
+        <v>0.7563173964949335</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.035524905759782</v>
+        <v>1.996670503283502</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06056628988219877</v>
+        <v>0.05496017991205208</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.100097040201539</v>
+        <v>0.1221158329843433</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.318022831556864</v>
+        <v>1.275473943401069</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-4.671105847313562</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.089349241348248</v>
+        <v>4.089349241348252</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.962805249498365</v>
+        <v>-5.943071879794264</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.453509607355045</v>
+        <v>-8.419557973449008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.417696546663753</v>
+        <v>-1.119254636215869</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.786414708050254</v>
+        <v>-4.865827653631567</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.753569950688671</v>
+        <v>-5.810041196439793</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.011422078444621</v>
+        <v>3.101321404514327</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-4.816658904200299</v>
+        <v>-4.723501754929557</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.559166742221459</v>
+        <v>-6.24299351006194</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>2.064414269040584</v>
+        <v>1.793241800671036</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.3404076730348916</v>
+        <v>-0.4591643561164632</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.372389675544544</v>
+        <v>-3.248613247218461</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.146897817948777</v>
+        <v>5.69362850415347</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.08861990329453731</v>
+        <v>-0.1697974494359282</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.720957158444398</v>
+        <v>-1.472177066630629</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.788887200301215</v>
+        <v>8.794727581762201</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>-0.9068738932706639</v>
+        <v>-1.02586752159605</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-3.066919107483178</v>
+        <v>-3.019870414949243</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>6.443318149149093</v>
+        <v>6.227788510691301</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.637607318794286</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.5581973713760023</v>
+        <v>0.5581973713760027</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5940156720580513</v>
+        <v>-0.5854993176959863</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8227615486732085</v>
+        <v>-0.8079836506915763</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1366674873687174</v>
+        <v>-0.1154750773046566</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6530493323745324</v>
+        <v>-0.6267971356667384</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7637834466110451</v>
+        <v>-0.7556748047688013</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3432260383894971</v>
+        <v>0.390228707010796</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.561766429763449</v>
+        <v>-0.5572970880228419</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.754924729833938</v>
+        <v>-0.7448376187400472</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2354082132575462</v>
+        <v>0.2103607698659982</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.02606381277206241</v>
+        <v>-0.06036257220420173</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.4871232018582282</v>
+        <v>-0.4647567945322875</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7553663955549714</v>
+        <v>0.8309172429649676</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.01769603412888741</v>
+        <v>0.003197183499380667</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3342639283565338</v>
+        <v>-0.2444889499171288</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.741100998055038</v>
+        <v>1.827519504730952</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.1255700918354319</v>
+        <v>-0.1695535147286075</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.4809527996591463</v>
+        <v>-0.4736960922477937</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.040632899188659</v>
+        <v>1.008965169333586</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.03287526018752</v>
+        <v>-5.056802438912452</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.852037405298979</v>
+        <v>-4.921665869828789</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.58022884073152</v>
+        <v>2.888772820017128</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.696994355831013</v>
+        <v>-3.591665407232658</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.937202399201088</v>
+        <v>-3.220556154314437</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.929211537006632</v>
+        <v>4.792351130589998</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.625538255236617</v>
+        <v>-3.627088806970934</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-3.324934461382643</v>
+        <v>-3.260245049945917</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>4.680605202143136</v>
+        <v>4.63216963379804</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.559200846231104</v>
+        <v>-0.5300135060758927</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.1489293006713212</v>
+        <v>-0.2394723387853752</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.499045973919703</v>
+        <v>8.354580252343121</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7953271670572158</v>
+        <v>0.6443064691059852</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.639395586984714</v>
+        <v>1.762464065104686</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.728463300284732</v>
+        <v>9.767210928804172</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.5119539587104573</v>
+        <v>-0.4251515064284888</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.03961710135269598</v>
+        <v>0.06670048816047848</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.353220424460249</v>
+        <v>8.329687953412602</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5244146134175225</v>
+        <v>-0.5379422167254522</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5127189007114245</v>
+        <v>-0.514823930271778</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2468602568778041</v>
+        <v>0.2897240506853069</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4405705680317549</v>
+        <v>-0.4271066241281181</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3446364849677661</v>
+        <v>-0.3755897025636344</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.538781445910278</v>
+        <v>0.5514693221100206</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4246899955205592</v>
+        <v>-0.4242410875666907</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3888145362861996</v>
+        <v>-0.3708971858738319</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5294034639458652</v>
+        <v>0.5266579583263735</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.07144853250356008</v>
+        <v>-0.05762716387625976</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.01759089888207823</v>
+        <v>-0.02036055537915145</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.148678338686423</v>
+        <v>1.15760036210135</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1216197981274102</v>
+        <v>0.1001304580014567</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.2637655606444212</v>
+        <v>0.2671462136395693</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.494682919747107</v>
+        <v>1.600638791857571</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07098514127659084</v>
+        <v>-0.05859830632387138</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.00192890091922248</v>
+        <v>0.009764268594376247</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.218920318626824</v>
+        <v>1.199905724841688</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>-1.912558265441774</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.255048201070688</v>
+        <v>4.255048201070691</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.176542620985613</v>
+        <v>-3.109691753488826</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.228292112376158</v>
+        <v>-4.125929771270929</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1.703352003492004</v>
+        <v>1.788816302465591</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.041443041222522</v>
+        <v>-2.025971145840173</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.990474088361541</v>
+        <v>-1.917289460666955</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.057717360902848</v>
+        <v>4.139249800397938</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.306087679845901</v>
+        <v>-2.267906447800408</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.637637086442634</v>
+        <v>-2.717116768422173</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.297079088993802</v>
+        <v>3.380856711494193</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.8850848369674374</v>
+        <v>-0.8553613845881217</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.903780771836782</v>
+        <v>-2.015924821114252</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.543124151218797</v>
+        <v>4.769392518075315</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.05830794382409349</v>
+        <v>0.03148757942289656</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1454425654927637</v>
+        <v>0.07675863220680332</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>6.339002238512199</v>
+        <v>6.352955574875462</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-0.6901811380227526</v>
+        <v>-0.7380924589722457</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-1.181667692138058</v>
+        <v>-1.116245413932849</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>5.222675702591141</v>
+        <v>5.291470110764694</v>
       </c>
     </row>
     <row r="31">
@@ -1625,7 +1625,7 @@
         <v>-0.3249934471775632</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.7230434793855707</v>
+        <v>0.7230434793855712</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.440989055365348</v>
+        <v>-0.4367696197462457</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5741424486741239</v>
+        <v>-0.5654754968051062</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2294759814328863</v>
+        <v>0.2499863358013583</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.347808248612915</v>
+        <v>-0.3470578267620147</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3372783706413646</v>
+        <v>-0.3366518796905109</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7001101778525837</v>
+        <v>0.7016228400991056</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.3583879106255291</v>
+        <v>-0.3601438333103249</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4266613085239268</v>
+        <v>-0.4273874150656981</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5188855434044229</v>
+        <v>0.5315047149293841</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1513973023306263</v>
+        <v>-0.1451036338611356</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.312823172987273</v>
+        <v>-0.3315987811628968</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7605920421863509</v>
+        <v>0.7886139101797901</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01922512300944077</v>
+        <v>0.008715587448146253</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.03681724216156741</v>
+        <v>0.01981231100103474</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.382182770365229</v>
+        <v>1.361624232411255</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.1238781323286513</v>
+        <v>-0.1317163135176486</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.2146723154713491</v>
+        <v>-0.2013364251886594</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.9683688953881368</v>
+        <v>0.9691846852976446</v>
       </c>
     </row>
     <row r="34">
